--- a/src/main/webapp/statistics/artem_omission_amount_on_Java.xlsx
+++ b/src/main/webapp/statistics/artem_omission_amount_on_Java.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>artem omissions amount on Java by period: 28.07.15 - 30.07.15</t>
+    <t>artem omissions amount on Java by period: 03.08.15 - 20.08.15</t>
   </si>
   <si>
     <t>Training</t>

--- a/src/main/webapp/statistics/artem_omission_amount_on_Java.xlsx
+++ b/src/main/webapp/statistics/artem_omission_amount_on_Java.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>artem omissions amount on Java by period: 03.08.15 - 20.08.15</t>
+    <t>artem omissions amount on Java by period: 04.08.15 - 05.08.15</t>
   </si>
   <si>
     <t>Training</t>

--- a/src/main/webapp/statistics/artem_omission_amount_on_Java.xlsx
+++ b/src/main/webapp/statistics/artem_omission_amount_on_Java.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>artem omissions amount on Java by period: 04.08.15 - 05.08.15</t>
+    <t>artem omissions amount on Java by period: 05.08.15 - 20.08.15</t>
   </si>
   <si>
     <t>Training</t>
